--- a/media/ca_culfest.xlsx
+++ b/media/ca_culfest.xlsx
@@ -10,13 +10,36 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">college</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interested in which events</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26,9 +49,11 @@
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -110,23 +135,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>